--- a/Excel_Report_RPBD.xlsx
+++ b/Excel_Report_RPBD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Название подразделения</t>
   </si>
@@ -44,6 +44,36 @@
     <t>Описание работ</t>
   </si>
   <si>
+    <t>Отдел Летающих Тапок</t>
+  </si>
+  <si>
+    <t>Иванова Анна Сергеевна</t>
+  </si>
+  <si>
+    <t>Эйфелева башня</t>
+  </si>
+  <si>
+    <t>Job 1</t>
+  </si>
+  <si>
+    <t>Соколов Александр Иванович</t>
+  </si>
+  <si>
+    <t>73258910476</t>
+  </si>
+  <si>
+    <t>Work Content 1</t>
+  </si>
+  <si>
+    <t>02.01.2023 0:00:00</t>
+  </si>
+  <si>
+    <t>05.01.2023 0:00:00</t>
+  </si>
+  <si>
+    <t>Разобрать собрать</t>
+  </si>
+  <si>
     <t>Департамент Секретных Улучшений Чая</t>
   </si>
   <si>
@@ -102,6 +132,36 @@
   </si>
   <si>
     <t>Намусорить и убраться</t>
+  </si>
+  <si>
+    <t>Бюро Разбирательства в Забытых Носках</t>
+  </si>
+  <si>
+    <t>Кузнецов Дмитрий Владимирович</t>
+  </si>
+  <si>
+    <t>Храм Артемиды Эфесской</t>
+  </si>
+  <si>
+    <t>Job 4</t>
+  </si>
+  <si>
+    <t>Лебедева Екатерина Дмитриевна</t>
+  </si>
+  <si>
+    <t>74621093852</t>
+  </si>
+  <si>
+    <t>Work Content 4</t>
+  </si>
+  <si>
+    <t>02.04.2023 0:00:00</t>
+  </si>
+  <si>
+    <t>05.04.2023 0:00:00</t>
+  </si>
+  <si>
+    <t>Отдохнуть и все</t>
   </si>
 </sst>
 </file>
@@ -147,7 +207,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -249,6 +309,70 @@
         <v>29</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
